--- a/ReportExport-2024-06-01_2024-06-30.xlsx
+++ b/ReportExport-2024-06-01_2024-06-30.xlsx
@@ -13,21 +13,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Project Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BagPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evresys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Work Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Leave Hours</t>
+  </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Godwin Semwezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Project Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Work Hours</t>
+    <t xml:space="preserve">Harriet Akot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Ayiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonah Musanyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Avinyia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Baraka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Imakit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salym Senyonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Itwaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonny Bazirakye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1516:15</t>
   </si>
 </sst>
 </file>
@@ -35,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -45,16 +123,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="191970"/>
       <name val="Calibri"/>
@@ -74,6 +142,57 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="191970"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="191970"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -103,17 +222,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -127,28 +259,230 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ReportExport-2024-06-01_2024-06-30.xlsx
+++ b/ReportExport-2024-06-01_2024-06-30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="187">
   <si>
     <t xml:space="preserve">Project Overview</t>
   </si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">Office stuff</t>
   </si>
   <si>
-    <t xml:space="preserve">PerfectPlace</t>
-  </si>
-  <si>
     <t xml:space="preserve">PlannerPlaza</t>
   </si>
   <si>
@@ -189,222 +186,228 @@
     <t xml:space="preserve">101:50</t>
   </si>
   <si>
-    <t xml:space="preserve">Damitha Uduwage</t>
+    <t xml:space="preserve">Dmitri Rezhko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmytro Moisiuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godwin Semwezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harriet Akot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor Vojtyuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihor Havryliuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilona Panchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iryna Svitko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Vintoniak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Ayiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonah Musanyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Avinyia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstantin Lishchinsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahiru Sampath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonid Rozenblyum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lidiia Serhieieva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maksym Levchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maksym Pavliuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Baraka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Voronov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Imakit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mykhailo Liashenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mykhailo Moskalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawod Lihinakaduwa</t>
   </si>
   <si>
     <t xml:space="preserve">88:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Dmitri Rezhko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmytro Moisiuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godwin Semwezi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harriet Akot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igor Vojtyuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ihor Havryliuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilona Panchuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iryna Svitko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Vintoniak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah Ayiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonah Musanyana</t>
+    <t xml:space="preserve">Nazar Dochylo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolas Korzhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirmanika Kudaarachchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleg Yavorski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksandr Sokolov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksandr Voroshchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olha Melnyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasindu Jayanath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyal Darshana</t>
   </si>
   <si>
     <t xml:space="preserve">112:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Joshua Avinyia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstantin Lishchinsky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lahiru Sampath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonid Rozenblyum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidiia Serhieieva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maksym Levchuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maksym Pavliuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Baraka</t>
+    <t xml:space="preserve">Roman Verovkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salym Senyonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Itwaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangharshanaa Ainkaran</t>
   </si>
   <si>
     <t xml:space="preserve">104:15</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Voronov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Imakit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mykhailo Liashenko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mykhailo Moskalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nawod Lihinakaduwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nazar Dochylo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolas Korzhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nirmanika Kudaarachchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleg Yavorski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleksandr Sokolov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleksandr Voroshchuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olha Melnyk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasindu Jayanath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petro Alekseev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piyal Darshana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roman Verovkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salym Senyonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Itwaru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangharshanaa Ainkaran</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serg Mazurok</t>
   </si>
   <si>
     <t xml:space="preserve">8:00</t>
   </si>
   <si>
-    <t xml:space="preserve">80:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sergey Yakovlev</t>
   </si>
   <si>
@@ -462,9 +465,6 @@
     <t xml:space="preserve">Tonny Bazirakye</t>
   </si>
   <si>
-    <t xml:space="preserve">114:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vadym Derych</t>
   </si>
   <si>
@@ -483,21 +483,12 @@
     <t xml:space="preserve">Vladyslav Zhloba</t>
   </si>
   <si>
-    <t xml:space="preserve">71:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Volodymyr Kusiak</t>
   </si>
   <si>
     <t xml:space="preserve">95:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Volodymyr Orobets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Volodymyr Stankov</t>
   </si>
   <si>
@@ -525,9 +516,6 @@
     <t xml:space="preserve">36:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Zoia Bohdanova</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -537,7 +525,7 @@
     <t xml:space="preserve">47:30</t>
   </si>
   <si>
-    <t xml:space="preserve">453:30</t>
+    <t xml:space="preserve">365:30</t>
   </si>
   <si>
     <t xml:space="preserve">299:45</t>
@@ -549,19 +537,19 @@
     <t xml:space="preserve">572:30</t>
   </si>
   <si>
-    <t xml:space="preserve">697:30</t>
+    <t xml:space="preserve">737:30</t>
   </si>
   <si>
     <t xml:space="preserve">305:00</t>
   </si>
   <si>
-    <t xml:space="preserve">820:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2225:15</t>
+    <t xml:space="preserve">1090:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021:15</t>
   </si>
   <si>
     <t xml:space="preserve">214:15</t>
@@ -573,13 +561,13 @@
     <t xml:space="preserve">14:30</t>
   </si>
   <si>
-    <t xml:space="preserve">496:10</t>
+    <t xml:space="preserve">488:10</t>
   </si>
   <si>
     <t xml:space="preserve">3:45</t>
   </si>
   <si>
-    <t xml:space="preserve">8057:20</t>
+    <t xml:space="preserve">7499:20</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date</t>
@@ -593,7 +581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="64">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -773,17 +761,6 @@
       <b/>
       <sz val="13"/>
       <color rgb="191970"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="191970"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -968,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -999,7 +976,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1078,13 +1057,17 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1093,16 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1139,13 +1112,12 @@
     <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1238,375 +1210,369 @@
       <c r="AB2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="30" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" t="s">
-        <v>32</v>
+      <c r="AA3" t="s">
+        <v>30</v>
       </c>
       <c r="AB3" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="s">
         <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>39</v>
+      <c r="AB5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>30</v>
       </c>
       <c r="AB8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
         <v>44</v>
       </c>
-      <c r="T9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>45</v>
+      <c r="AB9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
         <v>46</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>47</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="s">
         <v>48</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>31</v>
       </c>
       <c r="AB10" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>53</v>
+      <c r="X12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
       <c r="T15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>59</v>
+      <c r="AB16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="J17" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="M17" t="s">
         <v>61</v>
       </c>
-      <c r="AC17" t="s">
-        <v>61</v>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" t="s">
         <v>66</v>
       </c>
-      <c r="V18" t="s">
-        <v>31</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="AA18" t="s">
-        <v>31</v>
-      </c>
       <c r="AB18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>41</v>
+      <c r="AB19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="N20" t="s">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
         <v>71</v>
       </c>
-      <c r="AC20" t="s">
-        <v>71</v>
+      <c r="R20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1614,92 +1580,89 @@
       <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="J22" t="s">
-        <v>31</v>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
       </c>
       <c r="S22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T22" t="s">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="S23" t="s">
-        <v>81</v>
-      </c>
-      <c r="T23" t="s">
         <v>82</v>
       </c>
-      <c r="V23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>84</v>
+      <c r="AB23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" t="s">
-        <v>31</v>
-      </c>
       <c r="AB25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1707,10 +1670,10 @@
         <v>87</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -1720,7 +1683,7 @@
       <c r="N27" t="s">
         <v>89</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AB27" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1728,1014 +1691,964 @@
       <c r="A28" t="s">
         <v>90</v>
       </c>
-      <c r="N28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>75</v>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>91</v>
       </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>41</v>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>92</v>
       </c>
-      <c r="K30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>53</v>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="O31" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>31</v>
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="V31" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" t="s">
+        <v>30</v>
       </c>
       <c r="AB31" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" t="s">
         <v>98</v>
       </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
       <c r="V32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" t="s">
         <v>100</v>
       </c>
-      <c r="O33" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>100</v>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>101</v>
       </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>41</v>
+      <c r="N34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="N35" t="s">
         <v>103</v>
       </c>
-      <c r="AC35" t="s">
-        <v>103</v>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="J36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>50</v>
+      <c r="N36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="N37" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>41</v>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>59</v>
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" t="s">
+        <v>109</v>
+      </c>
+      <c r="V38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" t="s">
-        <v>109</v>
-      </c>
-      <c r="V39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>75</v>
+        <v>111</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>59</v>
+        <v>112</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
+        <v>115</v>
       </c>
       <c r="M42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" t="s">
-        <v>31</v>
-      </c>
-      <c r="V42" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>30</v>
       </c>
       <c r="X42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M43" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>31</v>
-      </c>
-      <c r="W43" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
-      </c>
-      <c r="R44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="X44" t="s">
+        <v>30</v>
       </c>
       <c r="AB44" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="S45" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>41</v>
+        <v>73</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>117</v>
-      </c>
-      <c r="S46" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>75</v>
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="T47" t="s">
+        <v>30</v>
+      </c>
+      <c r="X47" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
+        <v>121</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>30</v>
       </c>
       <c r="T48" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="S49" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="X49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>31</v>
-      </c>
-      <c r="T50" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="L50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="N51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>124</v>
-      </c>
-      <c r="L52" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>41</v>
+        <v>127</v>
+      </c>
+      <c r="T52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N53" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+      <c r="R53" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" t="s">
+        <v>30</v>
+      </c>
+      <c r="V53" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="T54" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>103</v>
+        <v>131</v>
+      </c>
+      <c r="S54" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" t="s">
+        <v>111</v>
+      </c>
+      <c r="X54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" t="s">
-        <v>84</v>
-      </c>
-      <c r="R55" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" t="s">
+        <v>133</v>
       </c>
       <c r="AB55" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="S56" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>75</v>
+        <v>134</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>132</v>
+        <v>30</v>
+      </c>
+      <c r="S57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>75</v>
+        <v>136</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="I59" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="S59" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>41</v>
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="J60" t="s">
-        <v>61</v>
-      </c>
-      <c r="S60" t="s">
-        <v>31</v>
-      </c>
-      <c r="U60" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>61</v>
+        <v>138</v>
+      </c>
+      <c r="M60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="S61" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>75</v>
+        <v>140</v>
+      </c>
+      <c r="H61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="M62" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>139</v>
-      </c>
-      <c r="H63" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
-      </c>
-      <c r="S64" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="M64" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" t="s">
+        <v>99</v>
+      </c>
+      <c r="R64" t="s">
+        <v>30</v>
+      </c>
+      <c r="U64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V64" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="S65" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
-      </c>
-      <c r="M66" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" t="s">
-        <v>100</v>
-      </c>
-      <c r="R66" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="S66" t="s">
+        <v>148</v>
       </c>
       <c r="V66" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>144</v>
-      </c>
-      <c r="I67" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="N67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
-      </c>
-      <c r="S68" t="s">
-        <v>147</v>
-      </c>
-      <c r="V68" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>147</v>
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>148</v>
-      </c>
-      <c r="N69" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" t="s">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="L70" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" t="s">
-        <v>75</v>
-      </c>
-      <c r="S71" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>75</v>
+        <v>153</v>
+      </c>
+      <c r="P71" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>62</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
-      </c>
-      <c r="L72" t="s">
-        <v>31</v>
-      </c>
-      <c r="R72" t="s">
-        <v>31</v>
-      </c>
-      <c r="S72" t="s">
-        <v>41</v>
-      </c>
-      <c r="V72" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="P73" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="V73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" t="s">
-        <v>156</v>
-      </c>
-      <c r="I74" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="S74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="S75" t="s">
+        <v>160</v>
       </c>
       <c r="V75" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>159</v>
-      </c>
-      <c r="O76" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="S76" t="s">
+        <v>162</v>
+      </c>
+      <c r="U76" t="s">
+        <v>30</v>
+      </c>
+      <c r="V76" t="s">
+        <v>30</v>
+      </c>
+      <c r="X76" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
       </c>
       <c r="S77" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="V77" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="E78" t="s">
-        <v>31</v>
+        <v>164</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
       </c>
       <c r="S78" t="s">
-        <v>163</v>
-      </c>
-      <c r="V78" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>163</v>
+        <v>111</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="M79" t="s">
+        <v>30</v>
       </c>
       <c r="S79" t="s">
-        <v>165</v>
-      </c>
-      <c r="U79" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="V79" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>165</v>
+        <v>30</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" t="s">
-        <v>31</v>
-      </c>
-      <c r="S80" t="s">
-        <v>41</v>
-      </c>
-      <c r="V80" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
+      <c r="A80" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="I81" t="s">
-        <v>31</v>
-      </c>
-      <c r="S81" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>59</v>
+      <c r="B80" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J80" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="K80" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L80" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="M80" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="N80" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="O80" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="P80" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q80" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="R80" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="S80" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="T80" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="U80" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="V80" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="W80" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="X80" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y80" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z80" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA80" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB80" s="57" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>168</v>
-      </c>
-      <c r="M82" t="s">
-        <v>31</v>
-      </c>
-      <c r="S82" t="s">
-        <v>169</v>
-      </c>
-      <c r="V82" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>169</v>
+      <c r="A82" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="61">
+        <v>45444</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="S83" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F84" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="G84" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I84" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="J84" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="K84" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="L84" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="M84" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="N84" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="O84" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="P84" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q84" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="R84" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="S84" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="T84" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="U84" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="V84" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="W84" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="X84" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y84" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z84" s="56" t="s">
+      <c r="A83" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="AA84" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB84" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC84" s="59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="63">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" s="67">
+      <c r="B83" s="65">
         <v>45473</v>
       </c>
     </row>
